--- a/natmiOut/OldD4/LR-pairs_lrc2p/App-Cav1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/App-Cav1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>95.725099432604</v>
+        <v>96.62005599999999</v>
       </c>
       <c r="H2">
-        <v>95.725099432604</v>
+        <v>289.860168</v>
       </c>
       <c r="I2">
-        <v>0.2181972921814483</v>
+        <v>0.2116037895476247</v>
       </c>
       <c r="J2">
-        <v>0.2181972921814483</v>
+        <v>0.2183905833651517</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>726.742657863424</v>
+        <v>780.134654</v>
       </c>
       <c r="N2">
-        <v>726.742657863424</v>
+        <v>2340.403962</v>
       </c>
       <c r="O2">
-        <v>0.7571451431111198</v>
+        <v>0.7636771497364756</v>
       </c>
       <c r="P2">
-        <v>0.7571451431111198</v>
+        <v>0.8065527316666545</v>
       </c>
       <c r="Q2">
-        <v>69567.51318589118</v>
+        <v>75376.65395702061</v>
       </c>
       <c r="R2">
-        <v>69567.51318589118</v>
+        <v>678389.8856131856</v>
       </c>
       <c r="S2">
-        <v>0.1652070200151815</v>
+        <v>0.161596978875167</v>
       </c>
       <c r="T2">
-        <v>0.1652070200151815</v>
+        <v>0.1761435215834374</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>95.725099432604</v>
+        <v>96.62005599999999</v>
       </c>
       <c r="H3">
-        <v>95.725099432604</v>
+        <v>289.860168</v>
       </c>
       <c r="I3">
-        <v>0.2181972921814483</v>
+        <v>0.2116037895476247</v>
       </c>
       <c r="J3">
-        <v>0.2181972921814483</v>
+        <v>0.2183905833651517</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>69.6939144568862</v>
+        <v>75.879851</v>
       </c>
       <c r="N3">
-        <v>69.6939144568862</v>
+        <v>227.639553</v>
       </c>
       <c r="O3">
-        <v>0.07260948323932014</v>
+        <v>0.0742791107111984</v>
       </c>
       <c r="P3">
-        <v>0.07260948323932014</v>
+        <v>0.07844940714876734</v>
       </c>
       <c r="Q3">
-        <v>6671.45689123283</v>
+        <v>7331.515452891656</v>
       </c>
       <c r="R3">
-        <v>6671.45689123283</v>
+        <v>65983.63907602491</v>
       </c>
       <c r="S3">
-        <v>0.01584319262951391</v>
+        <v>0.01571774131071714</v>
       </c>
       <c r="T3">
-        <v>0.01584319262951391</v>
+        <v>0.0171326117918696</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>95.725099432604</v>
+        <v>96.62005599999999</v>
       </c>
       <c r="H4">
-        <v>95.725099432604</v>
+        <v>289.860168</v>
       </c>
       <c r="I4">
-        <v>0.2181972921814483</v>
+        <v>0.2116037895476247</v>
       </c>
       <c r="J4">
-        <v>0.2181972921814483</v>
+        <v>0.2183905833651517</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.45973330337453</v>
+        <v>1.487823</v>
       </c>
       <c r="N4">
-        <v>1.45973330337453</v>
+        <v>4.463469</v>
       </c>
       <c r="O4">
-        <v>0.001520799651608287</v>
+        <v>0.001456436298691036</v>
       </c>
       <c r="P4">
-        <v>0.001520799651608287</v>
+        <v>0.001538205870914276</v>
       </c>
       <c r="Q4">
-        <v>139.7331156106104</v>
+        <v>143.753541578088</v>
       </c>
       <c r="R4">
-        <v>139.7331156106104</v>
+        <v>1293.781874202792</v>
       </c>
       <c r="S4">
-        <v>0.0003318343659314182</v>
+        <v>0.0003081874400377395</v>
       </c>
       <c r="T4">
-        <v>0.0003318343659314182</v>
+        <v>0.0003359296774846699</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>95.725099432604</v>
+        <v>96.62005599999999</v>
       </c>
       <c r="H5">
-        <v>95.725099432604</v>
+        <v>289.860168</v>
       </c>
       <c r="I5">
-        <v>0.2181972921814483</v>
+        <v>0.2116037895476247</v>
       </c>
       <c r="J5">
-        <v>0.2181972921814483</v>
+        <v>0.2183905833651517</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.07098096819435</v>
+        <v>1.134058666666667</v>
       </c>
       <c r="N5">
-        <v>1.07098096819435</v>
+        <v>3.402176</v>
       </c>
       <c r="O5">
-        <v>0.001115784287132332</v>
+        <v>0.001110134879604961</v>
       </c>
       <c r="P5">
-        <v>0.001115784287132332</v>
+        <v>0.001172461844606437</v>
       </c>
       <c r="Q5">
-        <v>102.5197596708307</v>
+        <v>109.5728118806187</v>
       </c>
       <c r="R5">
-        <v>102.5197596708307</v>
+        <v>986.1553069255681</v>
       </c>
       <c r="S5">
-        <v>0.0002434611101108824</v>
+        <v>0.0002349087474334058</v>
       </c>
       <c r="T5">
-        <v>0.0002434611101108824</v>
+        <v>0.0002560546262169816</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>95.725099432604</v>
+        <v>96.62005599999999</v>
       </c>
       <c r="H6">
-        <v>95.725099432604</v>
+        <v>289.860168</v>
       </c>
       <c r="I6">
-        <v>0.2181972921814483</v>
+        <v>0.2116037895476247</v>
       </c>
       <c r="J6">
-        <v>0.2181972921814483</v>
+        <v>0.2183905833651517</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>160.878608842685</v>
+        <v>162.913956</v>
       </c>
       <c r="N6">
-        <v>160.878608842685</v>
+        <v>325.827912</v>
       </c>
       <c r="O6">
-        <v>0.1676087897108194</v>
+        <v>0.1594771683740299</v>
       </c>
       <c r="P6">
-        <v>0.1676087897108194</v>
+        <v>0.1122871934690573</v>
       </c>
       <c r="Q6">
-        <v>15400.12082804503</v>
+        <v>15740.75555190153</v>
       </c>
       <c r="R6">
-        <v>15400.12082804503</v>
+        <v>94444.53331140921</v>
       </c>
       <c r="S6">
-        <v>0.03657178406071058</v>
+        <v>0.03374597317426933</v>
       </c>
       <c r="T6">
-        <v>0.03657178406071058</v>
+        <v>0.02452246568614309</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>111.338643073256</v>
+        <v>122.3539896666667</v>
       </c>
       <c r="H7">
-        <v>111.338643073256</v>
+        <v>367.061969</v>
       </c>
       <c r="I7">
-        <v>0.2537870483053972</v>
+        <v>0.2679626668787852</v>
       </c>
       <c r="J7">
-        <v>0.2537870483053972</v>
+        <v>0.2765570657541026</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>726.742657863424</v>
+        <v>780.134654</v>
       </c>
       <c r="N7">
-        <v>726.742657863424</v>
+        <v>2340.403962</v>
       </c>
       <c r="O7">
-        <v>0.7571451431111198</v>
+        <v>0.7636771497364756</v>
       </c>
       <c r="P7">
-        <v>0.7571451431111198</v>
+        <v>0.8065527316666545</v>
       </c>
       <c r="Q7">
-        <v>80914.54138996516</v>
+        <v>95452.58739412457</v>
       </c>
       <c r="R7">
-        <v>80914.54138996516</v>
+        <v>859073.2865471211</v>
       </c>
       <c r="S7">
-        <v>0.1921536310089386</v>
+        <v>0.2046369656777754</v>
       </c>
       <c r="T7">
-        <v>0.1921536310089386</v>
+        <v>0.223057856845686</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>111.338643073256</v>
+        <v>122.3539896666667</v>
       </c>
       <c r="H8">
-        <v>111.338643073256</v>
+        <v>367.061969</v>
       </c>
       <c r="I8">
-        <v>0.2537870483053972</v>
+        <v>0.2679626668787852</v>
       </c>
       <c r="J8">
-        <v>0.2537870483053972</v>
+        <v>0.2765570657541026</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>69.6939144568862</v>
+        <v>75.879851</v>
       </c>
       <c r="N8">
-        <v>69.6939144568862</v>
+        <v>227.639553</v>
       </c>
       <c r="O8">
-        <v>0.07260948323932014</v>
+        <v>0.0742791107111984</v>
       </c>
       <c r="P8">
-        <v>0.07260948323932014</v>
+        <v>0.07844940714876734</v>
       </c>
       <c r="Q8">
-        <v>7759.625866093289</v>
+        <v>9284.202505162206</v>
       </c>
       <c r="R8">
-        <v>7759.625866093289</v>
+        <v>83557.82254645985</v>
       </c>
       <c r="S8">
-        <v>0.01842734643028726</v>
+        <v>0.01990402859955727</v>
       </c>
       <c r="T8">
-        <v>0.01842734643028726</v>
+        <v>0.02169573785121202</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>111.338643073256</v>
+        <v>122.3539896666667</v>
       </c>
       <c r="H9">
-        <v>111.338643073256</v>
+        <v>367.061969</v>
       </c>
       <c r="I9">
-        <v>0.2537870483053972</v>
+        <v>0.2679626668787852</v>
       </c>
       <c r="J9">
-        <v>0.2537870483053972</v>
+        <v>0.2765570657541026</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.45973330337453</v>
+        <v>1.487823</v>
       </c>
       <c r="N9">
-        <v>1.45973330337453</v>
+        <v>4.463469</v>
       </c>
       <c r="O9">
-        <v>0.001520799651608287</v>
+        <v>0.001456436298691036</v>
       </c>
       <c r="P9">
-        <v>0.001520799651608287</v>
+        <v>0.001538205870914276</v>
       </c>
       <c r="Q9">
-        <v>162.5247252465617</v>
+        <v>182.041079967829</v>
       </c>
       <c r="R9">
-        <v>162.5247252465617</v>
+        <v>1638.369719710461</v>
       </c>
       <c r="S9">
-        <v>0.0003859592546455436</v>
+        <v>0.0003902705547363171</v>
       </c>
       <c r="T9">
-        <v>0.0003859592546455436</v>
+        <v>0.000425401702185786</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>111.338643073256</v>
+        <v>122.3539896666667</v>
       </c>
       <c r="H10">
-        <v>111.338643073256</v>
+        <v>367.061969</v>
       </c>
       <c r="I10">
-        <v>0.2537870483053972</v>
+        <v>0.2679626668787852</v>
       </c>
       <c r="J10">
-        <v>0.2537870483053972</v>
+        <v>0.2765570657541026</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.07098096819435</v>
+        <v>1.134058666666667</v>
       </c>
       <c r="N10">
-        <v>1.07098096819435</v>
+        <v>3.402176</v>
       </c>
       <c r="O10">
-        <v>0.001115784287132332</v>
+        <v>0.001110134879604961</v>
       </c>
       <c r="P10">
-        <v>0.001115784287132332</v>
+        <v>0.001172461844606437</v>
       </c>
       <c r="Q10">
-        <v>119.2415677560409</v>
+        <v>138.7566023827271</v>
       </c>
       <c r="R10">
-        <v>119.2415677560409</v>
+        <v>1248.809421444544</v>
       </c>
       <c r="S10">
-        <v>0.0002831716007768563</v>
+        <v>0.0002974747029341046</v>
       </c>
       <c r="T10">
-        <v>0.0002831716007768563</v>
+        <v>0.0003242526074529987</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>111.338643073256</v>
+        <v>122.3539896666667</v>
       </c>
       <c r="H11">
-        <v>111.338643073256</v>
+        <v>367.061969</v>
       </c>
       <c r="I11">
-        <v>0.2537870483053972</v>
+        <v>0.2679626668787852</v>
       </c>
       <c r="J11">
-        <v>0.2537870483053972</v>
+        <v>0.2765570657541026</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>160.878608842685</v>
+        <v>162.913956</v>
       </c>
       <c r="N11">
-        <v>160.878608842685</v>
+        <v>325.827912</v>
       </c>
       <c r="O11">
-        <v>0.1676087897108194</v>
+        <v>0.1594771683740299</v>
       </c>
       <c r="P11">
-        <v>0.1676087897108194</v>
+        <v>0.1122871934690573</v>
       </c>
       <c r="Q11">
-        <v>17912.00600805767</v>
+        <v>19933.17248897978</v>
       </c>
       <c r="R11">
-        <v>17912.00600805767</v>
+        <v>119599.0349338787</v>
       </c>
       <c r="S11">
-        <v>0.04253694001074888</v>
+        <v>0.04273392734378213</v>
       </c>
       <c r="T11">
-        <v>0.04253694001074888</v>
+        <v>0.03105381674756573</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>83.0328221969625</v>
+        <v>83.74384566666667</v>
       </c>
       <c r="H12">
-        <v>83.0328221969625</v>
+        <v>251.231537</v>
       </c>
       <c r="I12">
-        <v>0.189266316493269</v>
+        <v>0.1834041070557659</v>
       </c>
       <c r="J12">
-        <v>0.189266316493269</v>
+        <v>0.1892864490617203</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>726.742657863424</v>
+        <v>780.134654</v>
       </c>
       <c r="N12">
-        <v>726.742657863424</v>
+        <v>2340.403962</v>
       </c>
       <c r="O12">
-        <v>0.7571451431111198</v>
+        <v>0.7636771497364756</v>
       </c>
       <c r="P12">
-        <v>0.7571451431111198</v>
+        <v>0.8065527316666545</v>
       </c>
       <c r="Q12">
-        <v>60343.49389332164</v>
+        <v>65331.4760637944</v>
       </c>
       <c r="R12">
-        <v>60343.49389332164</v>
+        <v>587983.2845741495</v>
       </c>
       <c r="S12">
-        <v>0.1433020722874106</v>
+        <v>0.1400615257263107</v>
       </c>
       <c r="T12">
-        <v>0.1433020722874106</v>
+        <v>0.1526695025582116</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>83.0328221969625</v>
+        <v>83.74384566666667</v>
       </c>
       <c r="H13">
-        <v>83.0328221969625</v>
+        <v>251.231537</v>
       </c>
       <c r="I13">
-        <v>0.189266316493269</v>
+        <v>0.1834041070557659</v>
       </c>
       <c r="J13">
-        <v>0.189266316493269</v>
+        <v>0.1892864490617203</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>69.6939144568862</v>
+        <v>75.879851</v>
       </c>
       <c r="N13">
-        <v>69.6939144568862</v>
+        <v>227.639553</v>
       </c>
       <c r="O13">
-        <v>0.07260948323932014</v>
+        <v>0.0742791107111984</v>
       </c>
       <c r="P13">
-        <v>0.07260948323932014</v>
+        <v>0.07844940714876734</v>
       </c>
       <c r="Q13">
-        <v>5786.882407308946</v>
+        <v>6354.470531353663</v>
       </c>
       <c r="R13">
-        <v>5786.882407308946</v>
+        <v>57190.23478218296</v>
       </c>
       <c r="S13">
-        <v>0.01374252943518587</v>
+        <v>0.01362309397288372</v>
       </c>
       <c r="T13">
-        <v>0.01374252943518587</v>
+        <v>0.01484940971018731</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>83.0328221969625</v>
+        <v>83.74384566666667</v>
       </c>
       <c r="H14">
-        <v>83.0328221969625</v>
+        <v>251.231537</v>
       </c>
       <c r="I14">
-        <v>0.189266316493269</v>
+        <v>0.1834041070557659</v>
       </c>
       <c r="J14">
-        <v>0.189266316493269</v>
+        <v>0.1892864490617203</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.45973330337453</v>
+        <v>1.487823</v>
       </c>
       <c r="N14">
-        <v>1.45973330337453</v>
+        <v>4.463469</v>
       </c>
       <c r="O14">
-        <v>0.001520799651608287</v>
+        <v>0.001456436298691036</v>
       </c>
       <c r="P14">
-        <v>0.001520799651608287</v>
+        <v>0.001538205870914276</v>
       </c>
       <c r="Q14">
-        <v>121.2057758340821</v>
+        <v>124.596019691317</v>
       </c>
       <c r="R14">
-        <v>121.2057758340821</v>
+        <v>1121.364177221853</v>
       </c>
       <c r="S14">
-        <v>0.0002878361481841473</v>
+        <v>0.0002671163988450342</v>
       </c>
       <c r="T14">
-        <v>0.0002878361481841473</v>
+        <v>0.0002911615272312542</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>83.0328221969625</v>
+        <v>83.74384566666667</v>
       </c>
       <c r="H15">
-        <v>83.0328221969625</v>
+        <v>251.231537</v>
       </c>
       <c r="I15">
-        <v>0.189266316493269</v>
+        <v>0.1834041070557659</v>
       </c>
       <c r="J15">
-        <v>0.189266316493269</v>
+        <v>0.1892864490617203</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.07098096819435</v>
+        <v>1.134058666666667</v>
       </c>
       <c r="N15">
-        <v>1.07098096819435</v>
+        <v>3.402176</v>
       </c>
       <c r="O15">
-        <v>0.001115784287132332</v>
+        <v>0.001110134879604961</v>
       </c>
       <c r="P15">
-        <v>0.001115784287132332</v>
+        <v>0.001172461844606437</v>
       </c>
       <c r="Q15">
-        <v>88.92657230841222</v>
+        <v>94.97043395827913</v>
       </c>
       <c r="R15">
-        <v>88.92657230841222</v>
+        <v>854.7339056245121</v>
       </c>
       <c r="S15">
-        <v>0.0002111803820266045</v>
+        <v>0.0002036032963054081</v>
       </c>
       <c r="T15">
-        <v>0.0002111803820266045</v>
+        <v>0.000221931139225907</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>83.0328221969625</v>
+        <v>83.74384566666667</v>
       </c>
       <c r="H16">
-        <v>83.0328221969625</v>
+        <v>251.231537</v>
       </c>
       <c r="I16">
-        <v>0.189266316493269</v>
+        <v>0.1834041070557659</v>
       </c>
       <c r="J16">
-        <v>0.189266316493269</v>
+        <v>0.1892864490617203</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>160.878608842685</v>
+        <v>162.913956</v>
       </c>
       <c r="N16">
-        <v>160.878608842685</v>
+        <v>325.827912</v>
       </c>
       <c r="O16">
-        <v>0.1676087897108194</v>
+        <v>0.1594771683740299</v>
       </c>
       <c r="P16">
-        <v>0.1676087897108194</v>
+        <v>0.1122871934690573</v>
       </c>
       <c r="Q16">
-        <v>13358.20492332934</v>
+        <v>13643.04118821012</v>
       </c>
       <c r="R16">
-        <v>13358.20492332934</v>
+        <v>81858.24712926074</v>
       </c>
       <c r="S16">
-        <v>0.03172269824046171</v>
+        <v>0.02924876766142099</v>
       </c>
       <c r="T16">
-        <v>0.03172269824046171</v>
+        <v>0.02125444412686426</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>106.055776059415</v>
+        <v>111.321218</v>
       </c>
       <c r="H17">
-        <v>106.055776059415</v>
+        <v>333.963654</v>
       </c>
       <c r="I17">
-        <v>0.2417451984226883</v>
+        <v>0.2438002270031519</v>
       </c>
       <c r="J17">
-        <v>0.2417451984226883</v>
+        <v>0.2516196610353779</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>726.742657863424</v>
+        <v>780.134654</v>
       </c>
       <c r="N17">
-        <v>726.742657863424</v>
+        <v>2340.403962</v>
       </c>
       <c r="O17">
-        <v>0.7571451431111198</v>
+        <v>0.7636771497364756</v>
       </c>
       <c r="P17">
-        <v>0.7571451431111198</v>
+        <v>0.8065527316666545</v>
       </c>
       <c r="Q17">
-        <v>77075.25657518735</v>
+        <v>86845.53988728857</v>
       </c>
       <c r="R17">
-        <v>77075.25657518735</v>
+        <v>781609.8589855972</v>
       </c>
       <c r="S17">
-        <v>0.1830362028561724</v>
+        <v>0.1861846624628728</v>
       </c>
       <c r="T17">
-        <v>0.1830362028561724</v>
+        <v>0.2029445249491217</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>106.055776059415</v>
+        <v>111.321218</v>
       </c>
       <c r="H18">
-        <v>106.055776059415</v>
+        <v>333.963654</v>
       </c>
       <c r="I18">
-        <v>0.2417451984226883</v>
+        <v>0.2438002270031519</v>
       </c>
       <c r="J18">
-        <v>0.2417451984226883</v>
+        <v>0.2516196610353779</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>69.6939144568862</v>
+        <v>75.879851</v>
       </c>
       <c r="N18">
-        <v>69.6939144568862</v>
+        <v>227.639553</v>
       </c>
       <c r="O18">
-        <v>0.07260948323932014</v>
+        <v>0.0742791107111984</v>
       </c>
       <c r="P18">
-        <v>0.07260948323932014</v>
+        <v>0.07844940714876734</v>
       </c>
       <c r="Q18">
-        <v>7391.442184343548</v>
+        <v>8447.037434978518</v>
       </c>
       <c r="R18">
-        <v>7391.442184343548</v>
+        <v>76023.33691480667</v>
       </c>
       <c r="S18">
-        <v>0.01755299393305831</v>
+        <v>0.01810926405298242</v>
       </c>
       <c r="T18">
-        <v>0.01755299393305831</v>
+        <v>0.01973941323519919</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>106.055776059415</v>
+        <v>111.321218</v>
       </c>
       <c r="H19">
-        <v>106.055776059415</v>
+        <v>333.963654</v>
       </c>
       <c r="I19">
-        <v>0.2417451984226883</v>
+        <v>0.2438002270031519</v>
       </c>
       <c r="J19">
-        <v>0.2417451984226883</v>
+        <v>0.2516196610353779</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.45973330337453</v>
+        <v>1.487823</v>
       </c>
       <c r="N19">
-        <v>1.45973330337453</v>
+        <v>4.463469</v>
       </c>
       <c r="O19">
-        <v>0.001520799651608287</v>
+        <v>0.001456436298691036</v>
       </c>
       <c r="P19">
-        <v>0.001520799651608287</v>
+        <v>0.001538205870914276</v>
       </c>
       <c r="Q19">
-        <v>154.8131483291592</v>
+        <v>165.626268528414</v>
       </c>
       <c r="R19">
-        <v>154.8131483291592</v>
+        <v>1490.636416755726</v>
       </c>
       <c r="S19">
-        <v>0.0003676460135392007</v>
+        <v>0.0003550795002365049</v>
       </c>
       <c r="T19">
-        <v>0.0003676460135392007</v>
+        <v>0.0003870428398420782</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>106.055776059415</v>
+        <v>111.321218</v>
       </c>
       <c r="H20">
-        <v>106.055776059415</v>
+        <v>333.963654</v>
       </c>
       <c r="I20">
-        <v>0.2417451984226883</v>
+        <v>0.2438002270031519</v>
       </c>
       <c r="J20">
-        <v>0.2417451984226883</v>
+        <v>0.2516196610353779</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.07098096819435</v>
+        <v>1.134058666666667</v>
       </c>
       <c r="N20">
-        <v>1.07098096819435</v>
+        <v>3.402176</v>
       </c>
       <c r="O20">
-        <v>0.001115784287132332</v>
+        <v>0.001110134879604961</v>
       </c>
       <c r="P20">
-        <v>0.001115784287132332</v>
+        <v>0.001172461844606437</v>
       </c>
       <c r="Q20">
-        <v>113.5837177267154</v>
+        <v>126.2447920567894</v>
       </c>
       <c r="R20">
-        <v>113.5837177267154</v>
+        <v>1136.203128511104</v>
       </c>
       <c r="S20">
-        <v>0.0002697354938897234</v>
+        <v>0.0002706511356518062</v>
       </c>
       <c r="T20">
-        <v>0.0002697354938897234</v>
+        <v>0.0002950144519167855</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>106.055776059415</v>
+        <v>111.321218</v>
       </c>
       <c r="H21">
-        <v>106.055776059415</v>
+        <v>333.963654</v>
       </c>
       <c r="I21">
-        <v>0.2417451984226883</v>
+        <v>0.2438002270031519</v>
       </c>
       <c r="J21">
-        <v>0.2417451984226883</v>
+        <v>0.2516196610353779</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>160.878608842685</v>
+        <v>162.913956</v>
       </c>
       <c r="N21">
-        <v>160.878608842685</v>
+        <v>325.827912</v>
       </c>
       <c r="O21">
-        <v>0.1676087897108194</v>
+        <v>0.1594771683740299</v>
       </c>
       <c r="P21">
-        <v>0.1676087897108194</v>
+        <v>0.1122871934690573</v>
       </c>
       <c r="Q21">
-        <v>17062.10571217002</v>
+        <v>18135.78001111841</v>
       </c>
       <c r="R21">
-        <v>17062.10571217002</v>
+        <v>108814.6800667104</v>
       </c>
       <c r="S21">
-        <v>0.04051862012602866</v>
+        <v>0.03888056985140837</v>
       </c>
       <c r="T21">
-        <v>0.04051862012602866</v>
+        <v>0.0282536655592981</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>42.5565839708936</v>
+        <v>42.569235</v>
       </c>
       <c r="H22">
-        <v>42.5565839708936</v>
+        <v>85.13847</v>
       </c>
       <c r="I22">
-        <v>0.09700414459719731</v>
+        <v>0.09322920951467238</v>
       </c>
       <c r="J22">
-        <v>0.09700414459719731</v>
+        <v>0.06414624078364733</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>726.742657863424</v>
+        <v>780.134654</v>
       </c>
       <c r="N22">
-        <v>726.742657863424</v>
+        <v>2340.403962</v>
       </c>
       <c r="O22">
-        <v>0.7571451431111198</v>
+        <v>0.7636771497364756</v>
       </c>
       <c r="P22">
-        <v>0.7571451431111198</v>
+        <v>0.8065527316666545</v>
       </c>
       <c r="Q22">
-        <v>30927.6849445952</v>
+        <v>33209.73541776969</v>
       </c>
       <c r="R22">
-        <v>30927.6849445952</v>
+        <v>199258.4125066181</v>
       </c>
       <c r="S22">
-        <v>0.07344621694341671</v>
+        <v>0.07119701699434972</v>
       </c>
       <c r="T22">
-        <v>0.07344621694341671</v>
+        <v>0.05173732573019772</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>42.5565839708936</v>
+        <v>42.569235</v>
       </c>
       <c r="H23">
-        <v>42.5565839708936</v>
+        <v>85.13847</v>
       </c>
       <c r="I23">
-        <v>0.09700414459719731</v>
+        <v>0.09322920951467238</v>
       </c>
       <c r="J23">
-        <v>0.09700414459719731</v>
+        <v>0.06414624078364733</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>69.6939144568862</v>
+        <v>75.879851</v>
       </c>
       <c r="N23">
-        <v>69.6939144568862</v>
+        <v>227.639553</v>
       </c>
       <c r="O23">
-        <v>0.07260948323932014</v>
+        <v>0.0742791107111984</v>
       </c>
       <c r="P23">
-        <v>0.07260948323932014</v>
+        <v>0.07844940714876734</v>
       </c>
       <c r="Q23">
-        <v>2965.934922844753</v>
+        <v>3230.147208983985</v>
       </c>
       <c r="R23">
-        <v>2965.934922844753</v>
+        <v>19380.88325390391</v>
       </c>
       <c r="S23">
-        <v>0.007043420811274785</v>
+        <v>0.006924982775057861</v>
       </c>
       <c r="T23">
-        <v>0.007043420811274785</v>
+        <v>0.005032234560299215</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>42.5565839708936</v>
+        <v>42.569235</v>
       </c>
       <c r="H24">
-        <v>42.5565839708936</v>
+        <v>85.13847</v>
       </c>
       <c r="I24">
-        <v>0.09700414459719731</v>
+        <v>0.09322920951467238</v>
       </c>
       <c r="J24">
-        <v>0.09700414459719731</v>
+        <v>0.06414624078364733</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.45973330337453</v>
+        <v>1.487823</v>
       </c>
       <c r="N24">
-        <v>1.45973330337453</v>
+        <v>4.463469</v>
       </c>
       <c r="O24">
-        <v>0.001520799651608287</v>
+        <v>0.001456436298691036</v>
       </c>
       <c r="P24">
-        <v>0.001520799651608287</v>
+        <v>0.001538205870914276</v>
       </c>
       <c r="Q24">
-        <v>62.12126290016808</v>
+        <v>63.33548692540499</v>
       </c>
       <c r="R24">
-        <v>62.12126290016808</v>
+        <v>380.01292155243</v>
       </c>
       <c r="S24">
-        <v>0.0001475238693079776</v>
+        <v>0.0001357824048354406</v>
       </c>
       <c r="T24">
-        <v>0.0001475238693079776</v>
+        <v>9.867012417048707E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>42.5565839708936</v>
+        <v>42.569235</v>
       </c>
       <c r="H25">
-        <v>42.5565839708936</v>
+        <v>85.13847</v>
       </c>
       <c r="I25">
-        <v>0.09700414459719731</v>
+        <v>0.09322920951467238</v>
       </c>
       <c r="J25">
-        <v>0.09700414459719731</v>
+        <v>0.06414624078364733</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.07098096819435</v>
+        <v>1.134058666666667</v>
       </c>
       <c r="N25">
-        <v>1.07098096819435</v>
+        <v>3.402176</v>
       </c>
       <c r="O25">
-        <v>0.001115784287132332</v>
+        <v>0.001110134879604961</v>
       </c>
       <c r="P25">
-        <v>0.001115784287132332</v>
+        <v>0.001172461844606437</v>
       </c>
       <c r="Q25">
-        <v>45.57729150419178</v>
+        <v>48.27600988512</v>
       </c>
       <c r="R25">
-        <v>45.57729150419178</v>
+        <v>289.65605931072</v>
       </c>
       <c r="S25">
-        <v>0.0001082357003282655</v>
+        <v>0.0001034969972802365</v>
       </c>
       <c r="T25">
-        <v>0.0001082357003282655</v>
+        <v>7.52090197937638E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>42.5565839708936</v>
+        <v>42.569235</v>
       </c>
       <c r="H26">
-        <v>42.5565839708936</v>
+        <v>85.13847</v>
       </c>
       <c r="I26">
-        <v>0.09700414459719731</v>
+        <v>0.09322920951467238</v>
       </c>
       <c r="J26">
-        <v>0.09700414459719731</v>
+        <v>0.06414624078364733</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>160.878608842685</v>
+        <v>162.913956</v>
       </c>
       <c r="N26">
-        <v>160.878608842685</v>
+        <v>325.827912</v>
       </c>
       <c r="O26">
-        <v>0.1676087897108194</v>
+        <v>0.1594771683740299</v>
       </c>
       <c r="P26">
-        <v>0.1676087897108194</v>
+        <v>0.1122871934690573</v>
       </c>
       <c r="Q26">
-        <v>6846.444026334269</v>
+        <v>6935.122477743659</v>
       </c>
       <c r="R26">
-        <v>6846.444026334269</v>
+        <v>27740.48991097464</v>
       </c>
       <c r="S26">
-        <v>0.01625874727286956</v>
+        <v>0.01486793034314912</v>
       </c>
       <c r="T26">
-        <v>0.01625874727286956</v>
+        <v>0.007202801349186144</v>
       </c>
     </row>
   </sheetData>
